--- a/dataweb_limpio.xlsx
+++ b/dataweb_limpio.xlsx
@@ -483,19 +483,19 @@
         <v>60.25</v>
       </c>
       <c r="D2" t="n">
-        <v>60.33</v>
+        <v>60.44</v>
       </c>
       <c r="E2" t="n">
         <v>59.89</v>
       </c>
       <c r="F2" t="n">
-        <v>60.27</v>
+        <v>60.28</v>
       </c>
       <c r="G2" t="n">
-        <v>60.27</v>
+        <v>60.28</v>
       </c>
       <c r="H2" t="n">
-        <v>13707</v>
+        <v>16936</v>
       </c>
     </row>
     <row r="3">

--- a/dataweb_limpio.xlsx
+++ b/dataweb_limpio.xlsx
@@ -489,13 +489,13 @@
         <v>59.89</v>
       </c>
       <c r="F2" t="n">
-        <v>60.28</v>
+        <v>60.29</v>
       </c>
       <c r="G2" t="n">
-        <v>60.28</v>
+        <v>60.29</v>
       </c>
       <c r="H2" t="n">
-        <v>16936</v>
+        <v>17585</v>
       </c>
     </row>
     <row r="3">

--- a/dataweb_limpio.xlsx
+++ b/dataweb_limpio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,19 +483,19 @@
         <v>60.25</v>
       </c>
       <c r="D2" t="n">
-        <v>60.44</v>
+        <v>61.45</v>
       </c>
       <c r="E2" t="n">
         <v>59.89</v>
       </c>
       <c r="F2" t="n">
-        <v>60.29</v>
+        <v>61.02</v>
       </c>
       <c r="G2" t="n">
-        <v>60.29</v>
+        <v>61.02</v>
       </c>
       <c r="H2" t="n">
-        <v>17585</v>
+        <v>281000</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         <v>59.91</v>
       </c>
       <c r="H3" t="n">
-        <v>295238</v>
+        <v>281000</v>
       </c>
     </row>
     <row r="4">
@@ -7496,34 +7496,6 @@
       </c>
       <c r="H252" t="n">
         <v>281169</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>9 may 2024</t>
-        </is>
-      </c>
-      <c r="C253" t="n">
-        <v>79.23</v>
-      </c>
-      <c r="D253" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="E253" t="n">
-        <v>78.91</v>
-      </c>
-      <c r="F253" t="n">
-        <v>79.26000000000001</v>
-      </c>
-      <c r="G253" t="n">
-        <v>79.26000000000001</v>
-      </c>
-      <c r="H253" t="n">
-        <v>272712</v>
       </c>
     </row>
   </sheetData>
